--- a/GUI and Usability/GUI Bugs.xlsx
+++ b/GUI and Usability/GUI Bugs.xlsx
@@ -1,17 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Testing\Project\2021.APCS.CS423.GroupG.2-master\GUI and Usability\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28E3F90-CCBD-4D36-8C61-AAC5880BBA7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Bugs" sheetId="1" r:id="rId4"/>
+    <sheet name="Bugs" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -82,26 +102,79 @@
   </si>
   <si>
     <t>1. Adding to cart 1000 Channa item to get the total price as $8099.00</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>There is no favicon (website icon on the tab bar)</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>1. Look at the tab bar. 2. There is no icon</t>
+  </si>
+  <si>
+    <t>1. Hover over the tab bar to see the full page title. 2. It always says the current page is home.</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>The header sections do not adjust smoothly to different window widths</t>
+  </si>
+  <si>
+    <t>1. Slowly reduce the window width. 2. The header sections jump around, non-smoothly, as the width reduces</t>
+  </si>
+  <si>
+    <t>Product categories</t>
+  </si>
+  <si>
+    <t>When selecting product categories, confusing Javascript code is shown</t>
+  </si>
+  <si>
+    <t>1. Hover over a product category on the orange header. 2. Javascipt code, such as "javascript:__doPostBack('ctl00$Navigation$MainMenuRepeater$ctl00$LinkButton1','')" is displayed as the destination link</t>
+  </si>
+  <si>
+    <t>The page title always says that the current page is Home</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Remember me text is too close to the checkbox</t>
+  </si>
+  <si>
+    <t>1. Look at the remember me checkbox and text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -109,7 +182,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -131,56 +204,48 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -370,31 +435,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3.0" ySplit="1.0" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.86"/>
-    <col customWidth="1" min="2" max="2" width="27.14"/>
-    <col customWidth="1" min="3" max="3" width="67.71"/>
-    <col customWidth="1" min="4" max="4" width="62.0"/>
+    <col min="1" max="1" width="4.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="4" max="4" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,9 +482,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -432,9 +500,9 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
@@ -450,9 +518,9 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>13</v>
@@ -468,9 +536,9 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>16</v>
@@ -486,9 +554,9 @@
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>19</v>
@@ -504,7 +572,97 @@
       </c>
       <c r="F6" s="6"/>
     </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>